--- a/biology/Histoire de la zoologie et de la botanique/Constant_Houlbert/Constant_Houlbert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Constant_Houlbert/Constant_Houlbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constant Vincent Houlbert (18 juillet 1857, Voutré en Mayenne - 22 décembre 1947, Rennes) est un entomologiste et pomologiste français spécialisé dans les lépidoptères et les coléoptères.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Mayenne
-Il fait ses études d'élève-maître à l'Ecole Normale de Laval où il est élève comme son ami Lucien Daniel. Il y reçoit ses premières leçons d'horticulture et d'arboriculture par Gustave Rivière. Il débute en Mayenne dans la carrière universitaire, comme instituteur et comme professeur au Collège d'Évron. Tout en assurant son enseignement, il obtient, à la Faculté des Sciences de Rennes, ses licences ès sciences naturelles et ès sciences physiques
-Enseignement
-En 1893, à Paris, il obtient le doctorat ès sciences naturelles avec une thèse de botanique. Les études d'anatomie végétale étant particulièrement en honneur à la fin du XIXe siècle, il fait sa thèse sur le bois des Apétales.
+          <t>La Mayenne</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fait ses études d'élève-maître à l'Ecole Normale de Laval où il est élève comme son ami Lucien Daniel. Il y reçoit ses premières leçons d'horticulture et d'arboriculture par Gustave Rivière. Il débute en Mayenne dans la carrière universitaire, comme instituteur et comme professeur au Collège d'Évron. Tout en assurant son enseignement, il obtient, à la Faculté des Sciences de Rennes, ses licences ès sciences naturelles et ès sciences physiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Constant_Houlbert</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constant_Houlbert</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1893, à Paris, il obtient le doctorat ès sciences naturelles avec une thèse de botanique. Les études d'anatomie végétale étant particulièrement en honneur à la fin du XIXe siècle, il fait sa thèse sur le bois des Apétales.
 Il est alors nommé dans l'enseignement secondaire et on le trouve, en 1893, professeur au Collège de Dieppe et, en 1895, professeur au Collège de Melun. Il échoue de justesse à l'agrégation. 
 Il est ensuite nommé au Lycée de Sens et, en 1901, il arrive à Rennes comme professeur de sciences naturelles au Lycée de Rennes. En 1904, il obtient la chaire d'histoire naturelle de l'École de Médecine et de Pharmacie et il passe, en 1906, l'examen de docteur en pharmacie. 
 À partir de 1905, il cumule cette fonction de professeur à l'École de Médecine avec celle de sous-directeur de la Station Entomologique de la Faculté des Sciences, et il les tient jusqu'à sa retraite, en novembre 1927. A cette date il est nommé conservateur du Muséum d'histoire naturelle de Rennes, jusqu'à sa mort.
@@ -524,31 +576,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Constant_Houlbert</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Constant_Houlbert</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Œuvres scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'œuvre scientifique d'Houlbert est importante et variée : elle comprend plus de 120 publications. Il s'intéresse à la fois à la botanique, à la zoologie et aux sciences naturelles appliquées. De plus, étant professeur, il rédige plusieurs manuels scolaires de sciences naturelles ou physiques et, à l'usage des jeunes naturalistes, des articles d'initiation sur des sujets variés. On lui doit également une étude historique sur le Musée d'Histoire Naturelle de la ville de Rennes. 
 En botanique, il apporte une contribution importante à la connaissance de la flore de la Mayenne, non seulement en ce qui concerne les Phanérogames, mais aussi les Cryptogames. Il profite de son passage à Sens pour donner une flore du pays Senonais, qui lui vaut les éloges de Charles Henri Marie Flahault. 
@@ -562,37 +616,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Constant_Houlbert</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Constant_Houlbert</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Postérité</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constant Houlbert est lauréat de l'Institut, lauréat de la Société Entomologique de France, lauréat de l'Association Pomologique française, lauréat du Congrès International des Bibliothécaires de 1902, correspondant du Ministère de l'Instruction Publique. Il était officier de l'Instruction Publique et chevalier de l'Ordre du Mérite agricole.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -614,10 +637,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constant Houlbert est lauréat de l'Institut, lauréat de la Société Entomologique de France, lauréat de l'Association Pomologique française, lauréat du Congrès International des Bibliothécaires de 1902, correspondant du Ministère de l'Instruction Publique. Il était officier de l'Instruction Publique et chevalier de l'Ordre du Mérite agricole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Constant_Houlbert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constant_Houlbert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il écrit :
 Flore du Sénonnais, 1901.
